--- a/Data/deaths.xlsx
+++ b/Data/deaths.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/enzelegesari/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/enzelegesari/Documents/GitHub/emu660-spring2025-Selenzel/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AADE7B15-E56B-F64F-9679-AFCA88B7F3CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB1DEE6-02ED-2444-80EA-72729089264A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{157EB2F4-C11D-5B49-A549-3F3F735361A1}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{157EB2F4-C11D-5B49-A549-3F3F735361A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Ölüm" sheetId="1" r:id="rId1"/>
@@ -155,19 +155,19 @@
     <t>Erkek</t>
   </si>
   <si>
-    <t>Death Reason Code</t>
-  </si>
-  <si>
-    <t>Death Reason</t>
-  </si>
-  <si>
     <t>Gender</t>
   </si>
   <si>
     <t>Year</t>
   </si>
   <si>
-    <t>Amount of Deaths</t>
+    <t>Deaths</t>
+  </si>
+  <si>
+    <t>Death_Code</t>
+  </si>
+  <si>
+    <t>Death_Reason</t>
   </si>
 </sst>
 </file>
@@ -561,7 +561,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED15F87C-B50C-EA44-A560-DBC6AEB56BE7}">
   <dimension ref="A1:H217"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -572,19 +574,19 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>

--- a/Data/deaths.xlsx
+++ b/Data/deaths.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/enzelegesari/Documents/GitHub/emu660-spring2025-Selenzel/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB1DEE6-02ED-2444-80EA-72729089264A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F79C916-B02B-8B4E-BB44-D43DE426ABBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{157EB2F4-C11D-5B49-A549-3F3F735361A1}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15920" xr2:uid="{157EB2F4-C11D-5B49-A549-3F3F735361A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Ölüm" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Ölüm!$A$1:$E$217</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="43">
   <si>
     <t>Kadın</t>
   </si>
@@ -149,9 +152,6 @@
     <t>A00-B99</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Erkek</t>
   </si>
   <si>
@@ -161,13 +161,13 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Deaths</t>
-  </si>
-  <si>
     <t>Death_Code</t>
   </si>
   <si>
     <t>Death_Reason</t>
+  </si>
+  <si>
+    <t>Deaths_Amount</t>
   </si>
 </sst>
 </file>
@@ -562,7 +562,7 @@
   <dimension ref="A1:H217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E144" sqref="E14:E144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -574,19 +574,19 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -600,7 +600,7 @@
         <v>35</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" s="1">
         <v>2018</v>
@@ -617,7 +617,7 @@
         <v>33</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" s="1">
         <v>2018</v>
@@ -634,7 +634,7 @@
         <v>31</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" s="1">
         <v>2018</v>
@@ -651,7 +651,7 @@
         <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" s="1">
         <v>2018</v>
@@ -668,7 +668,7 @@
         <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" s="1">
         <v>2018</v>
@@ -685,7 +685,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" s="1">
         <v>2018</v>
@@ -702,7 +702,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" s="1">
         <v>2018</v>
@@ -719,7 +719,7 @@
         <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" s="1">
         <v>2018</v>
@@ -736,7 +736,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" s="1">
         <v>2018</v>
@@ -753,7 +753,7 @@
         <v>17</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" s="1">
         <v>2018</v>
@@ -770,7 +770,7 @@
         <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" s="1">
         <v>2018</v>
@@ -787,7 +787,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="1">
         <v>2018</v>
@@ -804,13 +804,13 @@
         <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" s="1">
         <v>2018</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>37</v>
+      <c r="E14" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -821,7 +821,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D15" s="1">
         <v>2018</v>
@@ -838,7 +838,7 @@
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D16" s="1">
         <v>2018</v>
@@ -855,7 +855,7 @@
         <v>5</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D17" s="1">
         <v>2018</v>
@@ -872,13 +872,13 @@
         <v>3</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D18" s="1">
         <v>2018</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>37</v>
+      <c r="E18" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -889,7 +889,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D19" s="1">
         <v>2018</v>
@@ -906,7 +906,7 @@
         <v>35</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D20" s="1">
         <v>2019</v>
@@ -923,7 +923,7 @@
         <v>33</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D21" s="1">
         <v>2019</v>
@@ -940,7 +940,7 @@
         <v>31</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D22" s="1">
         <v>2019</v>
@@ -957,7 +957,7 @@
         <v>29</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D23" s="1">
         <v>2019</v>
@@ -974,7 +974,7 @@
         <v>27</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D24" s="1">
         <v>2019</v>
@@ -991,7 +991,7 @@
         <v>25</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D25" s="1">
         <v>2019</v>
@@ -1008,7 +1008,7 @@
         <v>23</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D26" s="1">
         <v>2019</v>
@@ -1025,7 +1025,7 @@
         <v>21</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D27" s="1">
         <v>2019</v>
@@ -1042,7 +1042,7 @@
         <v>19</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D28" s="1">
         <v>2019</v>
@@ -1059,7 +1059,7 @@
         <v>17</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D29" s="1">
         <v>2019</v>
@@ -1076,7 +1076,7 @@
         <v>15</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D30" s="1">
         <v>2019</v>
@@ -1093,7 +1093,7 @@
         <v>13</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D31" s="1">
         <v>2019</v>
@@ -1110,13 +1110,13 @@
         <v>11</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D32" s="1">
         <v>2019</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>37</v>
+      <c r="E32" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -1127,7 +1127,7 @@
         <v>9</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D33" s="1">
         <v>2019</v>
@@ -1144,7 +1144,7 @@
         <v>7</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D34" s="1">
         <v>2019</v>
@@ -1161,7 +1161,7 @@
         <v>5</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D35" s="1">
         <v>2019</v>
@@ -1178,13 +1178,13 @@
         <v>3</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D36" s="1">
         <v>2019</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>37</v>
+      <c r="E36" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -1195,7 +1195,7 @@
         <v>1</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D37" s="1">
         <v>2019</v>
@@ -1212,7 +1212,7 @@
         <v>35</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D38" s="1">
         <v>2020</v>
@@ -1229,7 +1229,7 @@
         <v>33</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D39" s="1">
         <v>2020</v>
@@ -1246,7 +1246,7 @@
         <v>31</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D40" s="1">
         <v>2020</v>
@@ -1263,7 +1263,7 @@
         <v>29</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D41" s="1">
         <v>2020</v>
@@ -1280,7 +1280,7 @@
         <v>27</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D42" s="1">
         <v>2020</v>
@@ -1297,7 +1297,7 @@
         <v>25</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D43" s="1">
         <v>2020</v>
@@ -1314,7 +1314,7 @@
         <v>23</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D44" s="1">
         <v>2020</v>
@@ -1331,7 +1331,7 @@
         <v>21</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D45" s="1">
         <v>2020</v>
@@ -1348,7 +1348,7 @@
         <v>19</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D46" s="1">
         <v>2020</v>
@@ -1365,7 +1365,7 @@
         <v>17</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D47" s="1">
         <v>2020</v>
@@ -1382,7 +1382,7 @@
         <v>15</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D48" s="1">
         <v>2020</v>
@@ -1399,7 +1399,7 @@
         <v>13</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D49" s="1">
         <v>2020</v>
@@ -1416,13 +1416,13 @@
         <v>11</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D50" s="1">
         <v>2020</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>37</v>
+      <c r="E50" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -1433,7 +1433,7 @@
         <v>9</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D51" s="1">
         <v>2020</v>
@@ -1450,7 +1450,7 @@
         <v>7</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D52" s="1">
         <v>2020</v>
@@ -1467,7 +1467,7 @@
         <v>5</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D53" s="1">
         <v>2020</v>
@@ -1484,7 +1484,7 @@
         <v>3</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D54" s="1">
         <v>2020</v>
@@ -1501,7 +1501,7 @@
         <v>1</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D55" s="1">
         <v>2020</v>
@@ -1518,7 +1518,7 @@
         <v>35</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D56" s="1">
         <v>2021</v>
@@ -1535,7 +1535,7 @@
         <v>33</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D57" s="1">
         <v>2021</v>
@@ -1552,7 +1552,7 @@
         <v>31</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D58" s="1">
         <v>2021</v>
@@ -1569,7 +1569,7 @@
         <v>29</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D59" s="1">
         <v>2021</v>
@@ -1586,7 +1586,7 @@
         <v>27</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D60" s="1">
         <v>2021</v>
@@ -1603,7 +1603,7 @@
         <v>25</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D61" s="1">
         <v>2021</v>
@@ -1620,7 +1620,7 @@
         <v>23</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D62" s="1">
         <v>2021</v>
@@ -1637,7 +1637,7 @@
         <v>21</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D63" s="1">
         <v>2021</v>
@@ -1654,7 +1654,7 @@
         <v>19</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D64" s="1">
         <v>2021</v>
@@ -1671,7 +1671,7 @@
         <v>17</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D65" s="1">
         <v>2021</v>
@@ -1688,7 +1688,7 @@
         <v>15</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D66" s="1">
         <v>2021</v>
@@ -1705,7 +1705,7 @@
         <v>13</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D67" s="1">
         <v>2021</v>
@@ -1722,13 +1722,13 @@
         <v>11</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D68" s="1">
         <v>2021</v>
       </c>
-      <c r="E68" s="2" t="s">
-        <v>37</v>
+      <c r="E68" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -1739,7 +1739,7 @@
         <v>9</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D69" s="1">
         <v>2021</v>
@@ -1756,7 +1756,7 @@
         <v>7</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D70" s="1">
         <v>2021</v>
@@ -1773,7 +1773,7 @@
         <v>5</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D71" s="1">
         <v>2021</v>
@@ -1790,7 +1790,7 @@
         <v>3</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D72" s="1">
         <v>2021</v>
@@ -1807,7 +1807,7 @@
         <v>1</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D73" s="1">
         <v>2021</v>
@@ -1824,7 +1824,7 @@
         <v>35</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D74" s="1">
         <v>2022</v>
@@ -1841,7 +1841,7 @@
         <v>33</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D75" s="1">
         <v>2022</v>
@@ -1858,7 +1858,7 @@
         <v>31</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D76" s="1">
         <v>2022</v>
@@ -1875,7 +1875,7 @@
         <v>29</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D77" s="1">
         <v>2022</v>
@@ -1892,7 +1892,7 @@
         <v>27</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D78" s="1">
         <v>2022</v>
@@ -1909,7 +1909,7 @@
         <v>25</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D79" s="1">
         <v>2022</v>
@@ -1926,7 +1926,7 @@
         <v>23</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D80" s="1">
         <v>2022</v>
@@ -1943,7 +1943,7 @@
         <v>21</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D81" s="1">
         <v>2022</v>
@@ -1960,7 +1960,7 @@
         <v>19</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D82" s="1">
         <v>2022</v>
@@ -1977,7 +1977,7 @@
         <v>17</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D83" s="1">
         <v>2022</v>
@@ -1994,7 +1994,7 @@
         <v>15</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D84" s="1">
         <v>2022</v>
@@ -2011,7 +2011,7 @@
         <v>13</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D85" s="1">
         <v>2022</v>
@@ -2028,13 +2028,13 @@
         <v>11</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D86" s="1">
         <v>2022</v>
       </c>
-      <c r="E86" s="2" t="s">
-        <v>37</v>
+      <c r="E86" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -2045,7 +2045,7 @@
         <v>9</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D87" s="1">
         <v>2022</v>
@@ -2062,7 +2062,7 @@
         <v>7</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D88" s="1">
         <v>2022</v>
@@ -2079,7 +2079,7 @@
         <v>5</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D89" s="1">
         <v>2022</v>
@@ -2096,7 +2096,7 @@
         <v>3</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D90" s="1">
         <v>2022</v>
@@ -2113,7 +2113,7 @@
         <v>1</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D91" s="1">
         <v>2022</v>
@@ -2130,7 +2130,7 @@
         <v>35</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D92" s="1">
         <v>2023</v>
@@ -2147,7 +2147,7 @@
         <v>33</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D93" s="1">
         <v>2023</v>
@@ -2164,7 +2164,7 @@
         <v>31</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D94" s="1">
         <v>2023</v>
@@ -2181,7 +2181,7 @@
         <v>29</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D95" s="1">
         <v>2023</v>
@@ -2198,7 +2198,7 @@
         <v>27</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D96" s="1">
         <v>2023</v>
@@ -2215,7 +2215,7 @@
         <v>25</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D97" s="1">
         <v>2023</v>
@@ -2232,7 +2232,7 @@
         <v>23</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D98" s="1">
         <v>2023</v>
@@ -2249,7 +2249,7 @@
         <v>21</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D99" s="1">
         <v>2023</v>
@@ -2266,7 +2266,7 @@
         <v>19</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D100" s="1">
         <v>2023</v>
@@ -2283,7 +2283,7 @@
         <v>17</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D101" s="1">
         <v>2023</v>
@@ -2300,7 +2300,7 @@
         <v>15</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D102" s="1">
         <v>2023</v>
@@ -2317,7 +2317,7 @@
         <v>13</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D103" s="1">
         <v>2023</v>
@@ -2334,13 +2334,13 @@
         <v>11</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D104" s="1">
         <v>2023</v>
       </c>
-      <c r="E104" s="2" t="s">
-        <v>37</v>
+      <c r="E104" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
@@ -2351,7 +2351,7 @@
         <v>9</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D105" s="1">
         <v>2023</v>
@@ -2368,7 +2368,7 @@
         <v>7</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D106" s="1">
         <v>2023</v>
@@ -2385,7 +2385,7 @@
         <v>5</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D107" s="1">
         <v>2023</v>
@@ -2402,7 +2402,7 @@
         <v>3</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D108" s="1">
         <v>2023</v>
@@ -2419,7 +2419,7 @@
         <v>1</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D109" s="1">
         <v>2023</v>
@@ -2713,8 +2713,8 @@
       <c r="D126" s="1">
         <v>2018</v>
       </c>
-      <c r="E126" s="2" t="s">
-        <v>37</v>
+      <c r="E126" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
@@ -3019,8 +3019,8 @@
       <c r="D144" s="1">
         <v>2019</v>
       </c>
-      <c r="E144" s="2" t="s">
-        <v>37</v>
+      <c r="E144" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
@@ -4265,6 +4265,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E217" xr:uid="{ED15F87C-B50C-EA44-A560-DBC6AEB56BE7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>